--- a/[Python]PreProcessing/results/subInfo.xlsx
+++ b/[Python]PreProcessing/results/subInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutasuzuki/Desktop/Github/PupilFLE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutasuzuki/Desktop/Github/FLI-Anisotropy/[Python]PreProcessing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE6ECCE-8C08-7E4D-AA91-102BDF1DE05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED32DE-8D26-3344-AB31-7DF9EADED1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="34140" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="78">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="87">
   <si>
     <t>S02</t>
   </si>
@@ -263,20 +260,45 @@
   </si>
   <si>
     <t>S75</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Sub No</t>
+  </si>
+  <si>
+    <t>1st session</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>ave</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>button misunderstanding</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>LVF</t>
+  </si>
+  <si>
+    <t>RVF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -285,17 +307,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -309,6 +325,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -452,26 +475,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,56 +497,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1688,13 +1699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1703,1322 +1714,1352 @@
     <col min="9" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="B2" s="16">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="16">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>21</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="B8" s="11">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
         <v>21</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>22</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>21</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="19">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="19">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="19">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="24" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="21">
-        <v>20</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="19">
-        <v>24</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="19">
-        <v>25</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="19">
         <v>24</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="C15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="19">
-        <v>24</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="19">
-        <v>29</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="19">
         <v>22</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="11">
+        <v>24</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="C22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="19">
+        <v>29</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="19">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="19">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
+        <f>AVERAGE(B2:B26)</f>
+        <v>23.96</v>
+      </c>
+      <c r="G26" s="13">
+        <f>STDEV(B2:B26)</f>
+        <v>3.7022515671772807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="11">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="11">
+        <v>25</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="11">
+        <v>23</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="11">
+        <v>23</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="11">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="11">
+        <v>25</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="11">
+        <v>29</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="11">
+        <v>28</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="11">
+        <v>23</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="11">
+        <v>23</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="11">
+        <v>20</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="11">
         <v>21</v>
       </c>
-      <c r="B19" s="19">
+      <c r="C38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="11">
+        <v>24</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="11">
         <v>22</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="11">
+        <v>27</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="11">
+        <v>23</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="11">
+        <v>29</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="11">
+        <v>24</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="11">
+        <v>25</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="11">
         <v>20</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="C46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="11">
         <v>22</v>
       </c>
-      <c r="B20" s="8">
+      <c r="C47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="11">
+        <v>28</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="11">
+        <v>22</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="11">
+        <v>29</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="11">
         <v>24</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="11">
+        <v>26</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="11">
+        <v>24</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="11">
+        <v>24</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="11">
+        <v>24</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="11">
+        <v>27</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="11">
         <v>20</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="C57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="11">
+        <v>32</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="11">
+        <v>32</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="11">
         <v>23</v>
       </c>
-      <c r="B21" s="8">
-        <v>24</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="C60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="11">
+        <v>21</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="11">
+        <v>31</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="11">
+        <v>28</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="11">
+        <v>23</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="11">
+        <v>26</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="11">
+        <v>25</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="11">
+        <v>28</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="11">
+        <v>25</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="11">
+        <v>29</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="11">
+        <v>36</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="11">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="C71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="11">
+        <v>41</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="11">
+        <v>18</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="11">
         <v>25</v>
       </c>
-      <c r="B23" s="8">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="8">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="19">
-        <v>29</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="19">
-        <v>24</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="19">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18">
-        <f>AVERAGE(B3:B27)</f>
-        <v>23.96</v>
-      </c>
-      <c r="G27" s="18">
-        <f>STDEV(B3:B27)</f>
-        <v>3.7022515671772807</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="8">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="8">
-        <v>25</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
-        <v>23</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="8">
-        <v>23</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8">
-        <v>28</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="8">
-        <v>25</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="8">
-        <v>29</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="8">
-        <v>28</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="8">
-        <v>23</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="8">
-        <v>23</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="8">
-        <v>20</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="8">
-        <v>21</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="8">
-        <v>24</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="8">
-        <v>22</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="8">
-        <v>27</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="8">
-        <v>23</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="8">
-        <v>29</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="8">
-        <v>24</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="8">
-        <v>25</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="8">
-        <v>20</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="8">
-        <v>22</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="8">
-        <v>28</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="8">
-        <v>22</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="8">
-        <v>29</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="8">
-        <v>24</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="8">
-        <v>26</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="8">
-        <v>24</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="8">
-        <v>24</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="8">
-        <v>24</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="8">
-        <v>27</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="8">
-        <v>20</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="8">
-        <v>32</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="8">
-        <v>32</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="8">
-        <v>23</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="8">
-        <v>21</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="8">
-        <v>31</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="8">
-        <v>28</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="8">
-        <v>23</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="8">
-        <v>26</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="8">
-        <v>25</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="8">
-        <v>28</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="8">
-        <v>25</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="8">
-        <v>29</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="8">
-        <v>36</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="8">
-        <v>20</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="8">
-        <v>41</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="8">
-        <v>18</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="C74" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="8">
-        <v>25</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="9"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
